--- a/字段名.xlsx
+++ b/字段名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,12 +187,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +508,7 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,7 +527,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +537,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -565,7 +577,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -635,22 +647,22 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
